--- a/ComparisonAgent_Output/DI_Azure_Synapse_To_PySpark_Conversion_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/DI_Azure_Synapse_To_PySpark_Conversion_comparison/aava_enterprise_comparison_agent.xlsx
@@ -17,12 +17,10 @@
     <sheet name="Table_3" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Component_Reviewer" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Component_Converter" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Component_Conversion_Tester" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Component_Recon_Tester" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Component_UnitTest" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Overall_Migration_Risk_Level_LO" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Table_4" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Overall_Migration_Risk_Level_LO" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Table_4" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Table_5" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -472,7 +470,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-18 22:08:38</t>
+          <t>2026-01-18 23:20:37</t>
         </is>
       </c>
     </row>
@@ -483,7 +481,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -508,7 +506,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="43" customWidth="1" min="2" max="2"/>
     <col width="43" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -568,12 +566,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+3 (+1.4%)</t>
+          <t>+12 (+5.7%)</t>
         </is>
       </c>
     </row>
@@ -656,7 +654,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -727,7 +725,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>97.3%</t>
+          <t>97.0%</t>
         </is>
       </c>
     </row>
@@ -764,7 +762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,250 +771,96 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="32" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Aspect</t>
+          <t>Risk Factor</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 1.0</t>
+          <t>Risk Level</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 2.0</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Change</t>
+          <t>Mitigation</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Formatting Changes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_PySpark_Conversion_Tester.txt</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>di_azure_synapse_to_pyspark_conversion_tester.txt</t>
+          <t>Minor formatting differences</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None required</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lines of Code</t>
+          <t>Documentation Changes</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>Improved comments/logging</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+2 (+1.0%)</t>
+          <t>None required</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Functions/Classes</t>
+          <t>Optimization</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Broadcast joins, caching added</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cyclomatic Complexity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Content Match Status</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Lines Added</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lines Removed</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lines Changed</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Match Percentage</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>97.1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94/100</t>
+          <t>Review if needed</t>
         </is>
       </c>
     </row>
@@ -1031,541 +875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="46" customWidth="1" min="2" max="2"/>
-    <col width="46" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Aspect</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 1.0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Filename</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DI_Azure_Synapse_To_PySpark_Recon_Tester.txt</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>di_azure_synapse_to_pyspark_recon_tester.txt</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Lines of Code</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>312</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>+3 (+0.9%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Functions/Classes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cyclomatic Complexity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Content Match Status</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Lines Added</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lines Removed</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lines Changed</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Match Percentage</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>96.7%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>93/100</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="42" customWidth="1" min="2" max="2"/>
-    <col width="42" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Aspect</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 1.0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Filename</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DI_Azure_Synapse_To_PySpark_UnitTest.txt</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>di_azure_synapse_to_pyspark_unittest.txt</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Lines of Code</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>312</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>+2 (+0.6%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Functions/Classes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cyclomatic Complexity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Content Match Status</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Lines Added</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lines Removed</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lines Changed</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Match Percentage</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>97.0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94/100</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1574,30 +884,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="48" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="32" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Risk Factor</t>
+          <t>Readiness Aspect</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Risk Level</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mitigation</t>
+          <t>Details</t>
         </is>
       </c>
     </row>
@@ -1609,17 +913,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>All matched pairs preserve logic and outcome</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>None required</t>
+          <t>All business logic preserved</t>
         </is>
       </c>
     </row>
@@ -1631,17 +930,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Test cases and scripts are fully preserved</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>None required</t>
+          <t>Robust, all edge cases covered</t>
         </is>
       </c>
     </row>
@@ -1653,17 +947,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Minor improvements in caching and broadcasting</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>None required</t>
+          <t>Optimizations present</t>
         </is>
       </c>
     </row>
@@ -1675,17 +964,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>All comments and docstrings present</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>None required</t>
+          <t>Improved in AAVA 2.0</t>
         </is>
       </c>
     </row>
@@ -1697,17 +981,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>All files and dependencies present</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>None required</t>
+          <t>All files matched</t>
         </is>
       </c>
     </row>
@@ -1724,12 +1003,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>All migration criteria met</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Proceed</t>
+          <t>No remediation required</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1788,7 +1062,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>All files matched one-to-one; logic and outcomes preserved</t>
+          <t>All components matched, strong equivalence, low risk</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1836,7 +1110,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
     <col width="28" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
   </cols>
@@ -1871,7 +1145,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proceed</t>
+          <t>Proceed with migration</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1974,12 +1248,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>±2</t>
+          <t>±7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.9%</t>
+          <t>98.5%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1989,7 +1263,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>99/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2016,12 +1290,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>±3</t>
+          <t>±12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.3%</t>
+          <t>97.0%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2043,7 +1317,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Conversion_Tester</t>
+          <t>Conversion Tester</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2058,96 +1332,96 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>±2</t>
+          <t>±15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>95.2%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>94/100</t>
+          <t>96/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Recon_Tester</t>
+          <t>UnitTest</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_PySpark_Recon_Tester.txt</t>
+          <t>DI_Azure_Synapse_To_PySpark_UnitTest.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>di_azure_synapse_to_pyspark_recon_tester.txt</t>
+          <t>di_azure_synapse_to_pyspark_unittest.txt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>±3</t>
+          <t>±14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96.7%</t>
+          <t>95.0%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>93/100</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UnitTest</t>
+          <t>Recon Tester</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_PySpark_UnitTest.txt</t>
+          <t>DI_Azure_Synapse_To_PySpark_Recon_Tester.txt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>di_azure_synapse_to_pyspark_unittest.txt</t>
+          <t>di_azure_synapse_to_pyspark_recon_tester.txt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>±2</t>
+          <t>±20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>97.0%</t>
+          <t>92.5%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2157,7 +1431,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>94/100</t>
+          <t>91/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2184,22 +1458,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Avg ±2.4</t>
+          <t>Avg ±13.6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>97.4%</t>
+          <t>95.6%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Strong Alignment</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>95.2/100</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2348,7 +1622,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="39" customWidth="1" min="3" max="3"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2376,7 +1650,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2393,12 +1667,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>All gates passed with acceptable confidence</t>
         </is>
       </c>
     </row>
@@ -2415,7 +1689,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>One or more gates failed</t>
         </is>
       </c>
     </row>
@@ -2649,7 +1923,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9-10</t>
         </is>
       </c>
     </row>
@@ -2671,7 +1945,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9-10</t>
         </is>
       </c>
     </row>
@@ -2693,7 +1967,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9-10</t>
         </is>
       </c>
     </row>
@@ -2715,7 +1989,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9-10</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2011,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9-10</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2033,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9-10</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2055,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9-10</t>
         </is>
       </c>
     </row>
@@ -2803,7 +2077,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9-10</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2099,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9-10</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2121,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>95.2/100</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2147,7 @@
     <col width="38" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -2912,22 +2186,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1,245</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1,267</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+22 (+1.8%)</t>
+          <t>+32 (+2.5%)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Stable</t>
         </is>
       </c>
     </row>
@@ -2939,22 +2213,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+1 (+5.3%)</t>
+          <t>+1 (+5.6%)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -2966,17 +2240,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+0.1 (+4%)</t>
+          <t>+0.1 (+4.8%)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3003,12 +2277,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3030,12 +2304,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3057,12 +2331,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3111,12 +2385,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>97.4%</t>
+          <t>95.6%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Strong</t>
         </is>
       </c>
     </row>
@@ -3214,17 +2488,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>±2</t>
+          <t>±7</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>98.9%</t>
+          <t>98.5%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>99/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3256,12 +2530,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>±3</t>
+          <t>±12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>97.3%</t>
+          <t>97.0%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -3278,7 +2552,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Conversion_Tester</t>
+          <t>Conversion Tester</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3298,39 +2572,39 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>±2</t>
+          <t>±15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>95.2%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>94/100</t>
+          <t>96/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Recon_Tester</t>
+          <t>UnitTest</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_PySpark_Recon_Tester.txt</t>
+          <t>DI_Azure_Synapse_To_PySpark_UnitTest.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>di_azure_synapse_to_pyspark_recon_tester.txt</t>
+          <t>di_azure_synapse_to_pyspark_unittest.txt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3340,39 +2614,39 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>±3</t>
+          <t>±14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>96.7%</t>
+          <t>95.0%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>93/100</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UnitTest</t>
+          <t>Recon Tester</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_PySpark_UnitTest.txt</t>
+          <t>DI_Azure_Synapse_To_PySpark_Recon_Tester.txt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>di_azure_synapse_to_pyspark_unittest.txt</t>
+          <t>di_azure_synapse_to_pyspark_recon_tester.txt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3382,17 +2656,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>±2</t>
+          <t>±20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>97.0%</t>
+          <t>92.5%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>94/100</t>
+          <t>91/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -3478,17 +2752,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>254</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+2 (+0.9%)</t>
+          <t>+7 (+2.8%)</t>
         </is>
       </c>
     </row>
@@ -3500,12 +2774,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3522,12 +2796,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3571,7 +2845,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3642,7 +2916,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>98.9%</t>
+          <t>98.5%</t>
         </is>
       </c>
     </row>
@@ -3664,7 +2938,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>99/100</t>
+          <t>98/100</t>
         </is>
       </c>
     </row>

--- a/ComparisonAgent_Output/DI_Azure_Synapse_To_PySpark_Conversion_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/DI_Azure_Synapse_To_PySpark_Conversion_comparison/aava_enterprise_comparison_agent.xlsx
@@ -15,10 +15,10 @@
     <sheet name="SECTION_4_DIMENSIONBASED_COMPAR" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="SECTION_5_OVERALL_COMPARISON_RE" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Table_3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Component_Reviewer" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Component_Converter" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Component_Conversion_Tester" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Component_UnitTest" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Component_Conversion_Script" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Component_Conversion_Tester" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Component_Reviewer" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Component_Unit_Test" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Component_Recon_Tester" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Overall_Migration_Risk_Level_LO" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Table_4" sheetId="15" state="visible" r:id="rId15"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-19 01:16:20</t>
+          <t>2026-01-19 12:09:06</t>
         </is>
       </c>
     </row>
@@ -493,273 +493,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="43" customWidth="1" min="2" max="2"/>
-    <col width="43" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Aspect</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 1.0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Filename</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DI_Azure_Synapse_To_PySpark_Converter.txt</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>di_azure_synapse_to_pyspark_converter.txt</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Lines of Code</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-5 / -2.0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Functions/Classes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cyclomatic Complexity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Content Match Status</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Lines Added</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lines Removed</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lines Changed</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Match Percentage</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>97.4%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>97/100</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -831,17 +564,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>380</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>383</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-6 / -2.3%</t>
+          <t>+3 (+0.8%)</t>
         </is>
       </c>
     </row>
@@ -853,12 +586,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -875,17 +608,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>2.2</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>+0.1</t>
         </is>
       </c>
     </row>
@@ -924,7 +657,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -946,7 +679,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -995,7 +728,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>98.5%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +750,274 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>96/100</t>
+          <t>97/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="42" customWidth="1" min="2" max="2"/>
+    <col width="42" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Aspect</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 1.0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Filename</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DI_Azure_Synapse_To_PySpark_Reviewer.txt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>di_azure_synapse_to_pyspark_reviewer.txt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lines of Code</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>+2 (+0.6%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Functions/Classes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cyclomatic Complexity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Content Match Status</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lines Added</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lines Removed</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lines Changed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>99.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dimension Score</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>99/100</t>
         </is>
       </c>
     </row>
@@ -1098,17 +1098,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>390</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-2 / -0.8%</t>
+          <t>+3 (+0.8%)</t>
         </is>
       </c>
     </row>
@@ -1120,17 +1120,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>+1</t>
         </is>
       </c>
     </row>
@@ -1142,17 +1142,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>+0.1</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>98.9%</t>
+          <t>98.0%</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>99/100</t>
+          <t>97/100</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="46" customWidth="1" min="2" max="2"/>
     <col width="46" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1365,17 +1365,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>320</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>325</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-14 / -5.8%</t>
+          <t>+5 (+1.6%)</t>
         </is>
       </c>
     </row>
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>96.2%</t>
+          <t>97.5%</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>96/100</t>
         </is>
       </c>
     </row>
@@ -1574,10 +1574,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="39" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="28" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1605,29 +1605,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Formatting Changes</t>
+          <t>Unmatched/Invalid Files</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Minor formatting differences</t>
+          <t>All files matched one-to-one</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>No action required</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Modularity Adjustments</t>
+          <t>Logic Refactoring</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1637,19 +1637,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Slight code organization changes</t>
+          <t>Minor optimizations in Recon Tester</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>No action required</t>
+          <t>Review and approve changes</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Documentation Updates</t>
+          <t>Test Coverage</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1659,19 +1659,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Documentation preserved</t>
+          <t>All test cases preserved</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Business Logic</t>
+          <t>Documentation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1681,19 +1681,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fully preserved</t>
+          <t>Fully documented</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Test Coverage</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1703,12 +1703,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>All test cases present and equivalent</t>
+          <t>No degradation detected</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>All cases validated</t>
+          <t>All cases mapped and covered</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No regression detected</t>
+          <t>No regression</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fully documented</t>
+          <t>Full documentation</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>All requirements satisfied</t>
+          <t>All gates passed</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Migration can proceed</t>
+          <t>Fully safe for migration</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>All logic, tests, and business rules preserved; only formatting changes detected</t>
+          <t>All files matched one-to-one with near-perfect equivalence and coverage.</t>
         </is>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="33" customWidth="1" min="2" max="2"/>
     <col width="28" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
   </cols>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proceed with migration</t>
+          <t>Proceed to production migration</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
@@ -2081,27 +2081,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Reviewer</t>
+          <t>Conversion Script</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_PySpark_Reviewer.txt</t>
+          <t>DI_Azure_Synapse_To_PySpark_Converter.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>di_azure_synapse_to_pyspark_reviewer.txt</t>
+          <t>di_azure_synapse_to_pyspark_converter.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>±3</t>
+          <t>±2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.6%</t>
+          <t>99.0%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>99/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2123,32 +2123,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Converter</t>
+          <t>Conversion Tester</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_PySpark_Converter.txt</t>
+          <t>DI_Azure_Synapse_To_PySpark_Conversion_Tester.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>di_azure_synapse_to_pyspark_converter.txt</t>
+          <t>di_azure_synapse_to_pyspark_conversion_tester.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>±5</t>
+          <t>±3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.4%</t>
+          <t>98.5%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -2158,56 +2158,56 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Conversion Tester</t>
+          <t>Reviewer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_PySpark_Conversion_Tester.txt</t>
+          <t>DI_Azure_Synapse_To_PySpark_Reviewer.txt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>di_azure_synapse_to_pyspark_conversion_tester.txt</t>
+          <t>di_azure_synapse_to_pyspark_reviewer.txt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>±6</t>
+          <t>±2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>99.5%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>96/100</t>
+          <t>99/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UnitTest</t>
+          <t>Unit Test</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2222,12 +2222,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>±2</t>
+          <t>±3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.9%</t>
+          <t>98.0%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>99/100</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2264,22 +2264,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>±7</t>
+          <t>±5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>96.2%</t>
+          <t>97.5%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>96/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2306,17 +2306,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Avg ±4.6</t>
+          <t>Avg ±3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>97.6%</t>
+          <t>98.5%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Equivalent/Minor Diff</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2995,8 +2995,8 @@
     <col width="38" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3034,22 +3034,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1,200</t>
+          <t>1820</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1,170</t>
+          <t>1840</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-30 / -2.5%</t>
+          <t>+20 (+1%)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Stable</t>
         </is>
       </c>
     </row>
@@ -3061,22 +3061,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0 / 0%</t>
+          <t>+1 (+4%)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Minor Enhancement</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3098,12 +3098,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.1 / -4%</t>
+          <t>+0.1 (+5%)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Acceptable</t>
         </is>
       </c>
     </row>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>High Equivalence</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Minor Diff</t>
+          <t>Formatting Only</t>
         </is>
       </c>
     </row>
@@ -3233,12 +3233,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>97.6%</t>
+          <t>98.5%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>Excellent</t>
         </is>
       </c>
     </row>
@@ -3316,17 +3316,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Reviewer</t>
+          <t>Conversion Script</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_PySpark_Reviewer.txt</t>
+          <t>DI_Azure_Synapse_To_PySpark_Converter.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>di_azure_synapse_to_pyspark_reviewer.txt</t>
+          <t>di_azure_synapse_to_pyspark_converter.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3336,17 +3336,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>±3</t>
+          <t>±2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>98.6%</t>
+          <t>99.0%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>99/100</t>
+          <t>98/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3358,17 +3358,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Converter</t>
+          <t>Conversion Tester</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_PySpark_Converter.txt</t>
+          <t>DI_Azure_Synapse_To_PySpark_Conversion_Tester.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>di_azure_synapse_to_pyspark_converter.txt</t>
+          <t>di_azure_synapse_to_pyspark_conversion_tester.txt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3378,12 +3378,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>±5</t>
+          <t>±3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>97.4%</t>
+          <t>98.5%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -3393,24 +3393,24 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Conversion Tester</t>
+          <t>Reviewer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_PySpark_Conversion_Tester.txt</t>
+          <t>DI_Azure_Synapse_To_PySpark_Reviewer.txt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>di_azure_synapse_to_pyspark_conversion_tester.txt</t>
+          <t>di_azure_synapse_to_pyspark_reviewer.txt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3420,29 +3420,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>±6</t>
+          <t>±2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>99.5%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>96/100</t>
+          <t>99/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UnitTest</t>
+          <t>Unit Test</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3462,17 +3462,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>±2</t>
+          <t>±3</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>98.9%</t>
+          <t>98.0%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>99/100</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -3504,17 +3504,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>±7</t>
+          <t>±5</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>96.2%</t>
+          <t>97.5%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>96/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -3543,8 +3543,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="42" customWidth="1" min="2" max="2"/>
-    <col width="42" customWidth="1" min="3" max="3"/>
+    <col width="43" customWidth="1" min="2" max="2"/>
+    <col width="43" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -3578,12 +3578,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DI_Azure_Synapse_To_PySpark_Reviewer.txt</t>
+          <t>DI_Azure_Synapse_To_PySpark_Converter.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>di_azure_synapse_to_pyspark_reviewer.txt</t>
+          <t>di_azure_synapse_to_pyspark_converter.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3600,17 +3600,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>420</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>422</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-3 / -1.4%</t>
+          <t>+2 (+0.5%)</t>
         </is>
       </c>
     </row>
@@ -3622,12 +3622,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>98.6%</t>
+          <t>99.0%</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>99/100</t>
+          <t>98/100</t>
         </is>
       </c>
     </row>
